--- a/OmaHOKS-vaatimusmäärittely.xlsx
+++ b/OmaHOKS-vaatimusmäärittely.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE112766-9078-4F2A-82CA-CCC6F15BC51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF192EA-708B-47A7-8B61-976CBCB7DC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="761" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="761" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perustiedot" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ei-toiminnalliset vaatimukset'!$A$9:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ei-toiminnalliset vaatimukset'!$A$9:$F$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Parametrit!$A$3:$A$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Perustiedot!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Toiminnalliset vaatimukset'!$A$9:$F$21</definedName>
@@ -44,7 +44,7 @@
     <definedName name="Testaus">Parametrit!#REF!</definedName>
     <definedName name="Tila" localSheetId="4">[2]Parametrit!$E$4:$E$10</definedName>
     <definedName name="Tila">Parametrit!$E$4:$E$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Ei-toiminnalliset vaatimukset'!$A$4:$F$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Ei-toiminnalliset vaatimukset'!$A$4:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Perustiedot!$A$9:$D$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Selityksiä!$B$1:$E$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Toiminnalliset vaatimukset'!$A$8:$F$23</definedName>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -880,18 +880,6 @@
     <t>Opiskelija voi vetää ammattillisia opintoja 5-jakson periodeihin.</t>
   </si>
   <si>
-    <t>Opiskelija tarttuu hiiren vasemmalla näppäimellä ruudun vasemmasta reunasta löytyvään ammattilliseen opintoon ja siirtää opinnon haluamaansa periodiin.</t>
-  </si>
-  <si>
-    <t>Ruudun vasempaan laitaan näkyviin ammatilliset opinnot</t>
-  </si>
-  <si>
-    <t>Ruudun oikealle/keskelle tulee näkyviin lukuvuosi viiden jakson periodina.</t>
-  </si>
-  <si>
-    <t>Opiskelija tiputtaa vasemmalta valitsemansa ammatillisen opinnon haluamalleen periodille. Periodista näkyy kuinka paljon kyseiselle periodille on opintopisteitä kertymässä.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -901,12 +889,6 @@
     <t>Vasempaan laitaan päivittyy valittavissa olevat liiketoiminnan perustutkinnon ammatilliset opinnot eperusteista.</t>
   </si>
   <si>
-    <t>Liiketalouden opiskelijoiden ammattilliset opinnot, valinnaiset sekä pakolliset, joista opiskelija voi valita haluamansa opinnot.</t>
-  </si>
-  <si>
-    <t>Ammatillinen opinto sinisessä laatikossa, valinnainen vihreässä.</t>
-  </si>
-  <si>
     <t>Kurssin nimi ja opintopisteet näkyvät laatikossa</t>
   </si>
   <si>
@@ -916,26 +898,80 @@
     <t>TV2.4</t>
   </si>
   <si>
-    <t>Opiskelija kirjautuu sovellukseen omilla tunnuksilla.</t>
-  </si>
-  <si>
-    <t>Opiskelijan kirjautuminen.</t>
-  </si>
-  <si>
-    <t>Opiskelijalle luodaan ensikirjautumisen yhteydessä henkilökohtainen ID. ID:n perusteella ohjelma tunnistaa opiskelijan tämän kirjautuessa uudemman kerran.</t>
-  </si>
-  <si>
-    <t>Sovellus toimii windows PC:llä selaimessa</t>
-  </si>
-  <si>
     <t>Sovellus toimii androidissa sekä IOS:ssä</t>
+  </si>
+  <si>
+    <t>Opiskelijan henkilökohtaisen tunnuksen luominen.</t>
+  </si>
+  <si>
+    <t>Opiskelijalle luodaan ensikirjautumisella henkilökohtaiset tunnukset.</t>
+  </si>
+  <si>
+    <t>Opiskelija kirjautuu sovellukseen omilla henkilökohtaisilla tunnuksilla.</t>
+  </si>
+  <si>
+    <t>Opiskelija painaa etusivulla nappia joka ohjaa kirjautumissivulle -&gt; kirjautumissivulla opiskelija syöttää haluamansa tunnuksen, salasanan sekä salasanan varmistuksen ja painaa "luo tunnukset" tai vastaavaa nappia -&gt; palvelin lähettää opiskelijan sähköpostiin kertakäyttöisen varmennuslinkin tunnuksien luomisesta</t>
+  </si>
+  <si>
+    <t>Opiskelija kirjoittaa käyttäjätunnuskenttään käyttäjätunnuksensa sekä salasanakenttään salasanansa ja painaa "kirjaudu" nappia.</t>
+  </si>
+  <si>
+    <t>ETV4</t>
+  </si>
+  <si>
+    <t>Opiskelijan tunnuksien luominen</t>
+  </si>
+  <si>
+    <t>Opiskelijan kirjautuminen tunnuksillaan.</t>
+  </si>
+  <si>
+    <t>Opiskelija kirjautuminen tunnuksillaan.</t>
+  </si>
+  <si>
+    <t>Opiskelijalle luodaan tunnuksien luomisen yhteydessä henkilökohtainen ID.</t>
+  </si>
+  <si>
+    <t>Opiskelija kirjataan sisään viittaamalla opiskelijan henkilöhtaiseen ID:hen.</t>
+  </si>
+  <si>
+    <t>ETV5</t>
+  </si>
+  <si>
+    <t>ETV6</t>
+  </si>
+  <si>
+    <t>ETV7</t>
+  </si>
+  <si>
+    <t>ETV8</t>
+  </si>
+  <si>
+    <t>Toimii mobiiliversiona IOS tai Android pohjaisen puhelimen selaimessa.</t>
+  </si>
+  <si>
+    <t>Sovellus toimii windows PC:llä chromen tai MACilla safarin selaimella.</t>
+  </si>
+  <si>
+    <t>Pakollinen ammatillinen opinto sinisessä laatikossa, valinnainen vihreässä.</t>
+  </si>
+  <si>
+    <t>Selkeyden vuoksi pakolliset ja valinnaiset opinnot värikoodattuja.</t>
+  </si>
+  <si>
+    <t>Periodit jaettu viiteen osaan, syksylle kaksi, keväälle kaksi ja kesälle yksi periodi. Yhdellä periodilla tulee näkymään opiskelijan siihen valitsemat opinnot sekä niistä koostuva opintopisteiden määrä.</t>
+  </si>
+  <si>
+    <t>Ruudun oikealla/keskellä näkyvissä lukuvuosi viiden jakson periodina.</t>
+  </si>
+  <si>
+    <t>Opiskelija tarttuu hiiren vasemmalla näppäimellä (taikka sormella jos mobiiliversio) ruudun vasemmasta reunasta löytyvään ammattillisten  opintojen listasta löytyvään opintolaatikkoon ja siirtää opinnon haluamaansa periodiin. Samalla tavalla opiskelija voi siirtää opintoja periodista toiseen, tai periodista takaisin alkuperäiseen listaan.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,6 +1120,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1305,7 +1352,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1475,31 +1522,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3148,8 +3214,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="List1" displayName="List1_3" ref="A9:G14" insertRowShift="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" totalsRowBorderDxfId="27">
-  <autoFilter ref="A9:G14" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="List1" displayName="List1_3" ref="A9:G25" insertRowShift="1" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" totalsRowBorderDxfId="27">
+  <autoFilter ref="A9:G25" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID *" dataDxfId="26"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Vaatimus *" dataDxfId="25"/>
@@ -3492,7 +3558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
@@ -3581,17 +3647,17 @@
       <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="63"/>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="64" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="63"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="65" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="63"/>
@@ -3601,11 +3667,11 @@
       <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="63"/>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="64" t="s">
         <v>122</v>
       </c>
       <c r="D12" s="63"/>
@@ -3615,7 +3681,7 @@
       <c r="B13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="62" t="s">
         <v>123</v>
       </c>
       <c r="D13" s="63"/>
@@ -3625,7 +3691,7 @@
       <c r="B14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="64" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="63"/>
@@ -3681,7 +3747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
@@ -3837,10 +3903,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
     </row>
@@ -3878,11 +3944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4033,7 +4099,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
@@ -4042,11 +4108,11 @@
       <c r="A11" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="68" t="s">
         <v>133</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>134</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>43</v>
@@ -4054,7 +4120,9 @@
       <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="68" t="s">
+        <v>136</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="54" t="s">
         <v>95</v>
@@ -4065,10 +4133,10 @@
         <v>87</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>43</v>
@@ -4076,7 +4144,9 @@
       <c r="E12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
@@ -4084,18 +4154,8 @@
       <c r="A13" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -4103,7 +4163,7 @@
     <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="11"/>
@@ -4116,16 +4176,10 @@
       <c r="A15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -4134,8 +4188,8 @@
       <c r="A16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="54"/>
       <c r="E16" s="11"/>
       <c r="F16" s="54"/>
@@ -4146,65 +4200,45 @@
       <c r="A17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="B17" s="68"/>
       <c r="D17" s="54"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="54"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" s="55" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="55" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="54"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" s="55" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+    <row r="19" spans="1:8" s="55" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" s="55" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="54"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
@@ -4278,13 +4312,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4301,7 +4335,7 @@
     <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -4310,7 +4344,7 @@
       <c r="F1" s="57"/>
       <c r="G1" s="57"/>
     </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
       <c r="B2" s="59" t="s">
         <v>99</v>
@@ -4321,7 +4355,7 @@
       <c r="F2" s="57"/>
       <c r="G2" s="57"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -4330,7 +4364,7 @@
       <c r="F3" s="57"/>
       <c r="G3" s="57"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="58" t="s">
@@ -4346,7 +4380,7 @@
       <c r="F4" s="57"/>
       <c r="G4" s="57"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57"/>
       <c r="B5" s="57"/>
       <c r="C5" s="58" t="s">
@@ -4363,7 +4397,7 @@
       <c r="F5" s="57"/>
       <c r="G5" s="57"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="57"/>
       <c r="B6" s="57"/>
       <c r="C6" s="58" t="s">
@@ -4377,7 +4411,7 @@
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="57"/>
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
@@ -4386,12 +4420,12 @@
       <c r="F7" s="57"/>
       <c r="G7" s="57"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>49</v>
       </c>
@@ -4414,14 +4448,16 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>105</v>
       </c>
@@ -4435,12 +4471,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
@@ -4454,79 +4490,275 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>4</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="69"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="69"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="69"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="75"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="75"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="75"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="75"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="75"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="71"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="26"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="18"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="26"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F14" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F28" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Tila</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E14" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E28" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>Tarkeys</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D14" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D28" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>Kategoria</formula1>
     </dataValidation>
   </dataValidations>
@@ -5115,15 +5347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100D51A330D0A170847880C6D1FE943CA4F" ma:contentTypeVersion="0" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="70487edd2bc2814e2f5a8e26c711dad4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e0100cabb18a25d4bc9820569b44ec4">
     <xsd:element name="properties">
@@ -5237,6 +5460,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5244,14 +5476,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E8E8FD2-0535-4F5A-A993-2B202ED64CD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E03188F1-E598-4DDB-AB91-25EAA8A7FEC2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5263,6 +5487,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E8E8FD2-0535-4F5A-A993-2B202ED64CD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
